--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf6a58af11ad5eb/Desktop/3BHIF/SYP/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_AD4DB114E441178AC67DF409C691E538683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B8B7BBF-F447-4BBD-BFF3-E88AC297046B}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4DB114E441178AC67DF409C691E538683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7444F466-F95E-4AC0-B764-034EF719C958}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Verfassung &amp; Fertigstellung Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Was wurde gearbeitet</t>
+  </si>
+  <si>
+    <t>David Schwab</t>
+  </si>
+  <si>
+    <t>Entwicklung Mockup, Verfassung Projektauftrag</t>
+  </si>
+  <si>
+    <t>Entwicklung Mockup, Verfassung Pflichtenheft</t>
   </si>
 </sst>
 </file>
@@ -114,13 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -401,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,19 +425,25 @@
     <col min="1" max="1" width="9.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
     <col min="3" max="3" width="35.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="42.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -434,8 +453,17 @@
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>45322</v>
       </c>
@@ -445,8 +473,17 @@
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F8" s="4">
+        <v>45322</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>45329</v>
       </c>
@@ -456,8 +493,17 @@
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F9" s="4">
+        <v>45329</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>45336</v>
       </c>
@@ -467,8 +513,17 @@
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F10" s="4">
+        <v>45336</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>45350</v>
       </c>
@@ -478,8 +533,17 @@
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F11" s="4">
+        <v>45350</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>45364</v>
       </c>
@@ -489,8 +553,17 @@
       <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F12" s="4">
+        <v>45364</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>45371</v>
       </c>
@@ -500,6 +573,9 @@
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf6a58af11ad5eb/Desktop/3BHIF/SYP/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4DB114E441178AC67DF409C691E538683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7444F466-F95E-4AC0-B764-034EF719C958}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_AD4DB114E441178AC67DF409C691E538683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{762D5E82-EC07-41BA-AD66-E7DEE821D60D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -33,13 +44,19 @@
     <t>Benjamin Wilflingseder</t>
   </si>
   <si>
+    <t>David Schwab</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
     <t>Anzahl Stunden</t>
   </si>
   <si>
     <t>Was wurde gearbeit</t>
   </si>
   <si>
-    <t>Datum</t>
+    <t>Was wurde gearbeitet</t>
   </si>
   <si>
     <t>Verfassung der Projektidee</t>
@@ -48,10 +65,16 @@
     <t>Verfassung Projektantrag</t>
   </si>
   <si>
+    <t>Entwicklung Mockup</t>
+  </si>
+  <si>
     <t>Verfassung Projektauftrag</t>
   </si>
   <si>
-    <t>Entwicklung Mockup</t>
+    <t>Entwicklung Mockup, Verfassung Projektauftrag</t>
+  </si>
+  <si>
+    <t>Entwicklung Mockup, Verfassung Pflichtenheft</t>
   </si>
   <si>
     <t>Verfassung Pflichtenheft</t>
@@ -60,23 +83,29 @@
     <t>Verfassung &amp; Fertigstellung Pflichtenheft</t>
   </si>
   <si>
-    <t>Was wurde gearbeitet</t>
-  </si>
-  <si>
-    <t>David Schwab</t>
-  </si>
-  <si>
-    <t>Entwicklung Mockup, Verfassung Projektauftrag</t>
-  </si>
-  <si>
-    <t>Entwicklung Mockup, Verfassung Pflichtenheft</t>
+    <t>IssueNr.</t>
+  </si>
+  <si>
+    <t>Issue Nr.</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>Issue erstellung</t>
+  </si>
+  <si>
+    <t>Project-Docs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +113,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +134,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,18 +170,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -414,56 +477,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
     <col min="3" max="3" width="35.81640625" customWidth="1"/>
     <col min="6" max="6" width="11.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" customWidth="1"/>
-    <col min="8" max="8" width="42.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>45322</v>
       </c>
@@ -471,7 +542,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="4">
         <v>45322</v>
@@ -480,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>45329</v>
       </c>
@@ -491,7 +565,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="4">
         <v>45329</v>
@@ -500,10 +577,10 @@
         <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>45336</v>
       </c>
@@ -511,7 +588,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="4">
         <v>45336</v>
@@ -520,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>45350</v>
       </c>
@@ -531,7 +611,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="4">
         <v>45350</v>
@@ -540,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>45364</v>
       </c>
@@ -551,7 +634,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="4">
         <v>45364</v>
@@ -560,10 +646,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>45371</v>
       </c>
@@ -571,13 +657,46 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbf6a58af11ad5eb/Desktop/3BHIF/SYP/Inventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/580c238a02bfe5e7/Desktop/Schule/3BHIF/SYP/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_AD4DB114E441178AC67DF409C691E538683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{762D5E82-EC07-41BA-AD66-E7DEE821D60D}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_AD4DB114E441178AC67DF409C691E538683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D1F4D0-30DE-4565-9576-220D512C1C86}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>Project-Docs</t>
+  </si>
+  <si>
+    <t>#5 #4</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#5 #6</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Issue Erstellung</t>
   </si>
 </sst>
 </file>
@@ -190,13 +205,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -480,35 +495,35 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="42.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:9" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="G6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -530,11 +545,11 @@
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45322</v>
       </c>
@@ -556,8 +571,11 @@
       <c r="H8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>45329</v>
       </c>
@@ -579,8 +597,11 @@
       <c r="H9" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45336</v>
       </c>
@@ -602,8 +623,11 @@
       <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>45350</v>
       </c>
@@ -625,8 +649,11 @@
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>45364</v>
       </c>
@@ -648,8 +675,11 @@
       <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>45371</v>
       </c>
@@ -662,11 +692,18 @@
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F13" s="4">
+        <v>45371</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>45385</v>
       </c>
@@ -678,7 +715,7 @@
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>45392</v>
       </c>

--- a/Stundenliste.xlsx
+++ b/Stundenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/580c238a02bfe5e7/Desktop/Schule/3BHIF/SYP/Inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_AD4DB114E441178AC67DF409C691E538683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D1F4D0-30DE-4565-9576-220D512C1C86}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_AD4DB114E441178AC67DF409C691E538683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A305F8EE-6083-42FD-B69B-28CDE1C247FD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Stundenliste</t>
   </si>
@@ -95,9 +95,6 @@
     <t>#5</t>
   </si>
   <si>
-    <t>Issue erstellung</t>
-  </si>
-  <si>
     <t>Project-Docs</t>
   </si>
   <si>
@@ -114,6 +111,27 @@
   </si>
   <si>
     <t>Issue Erstellung</t>
+  </si>
+  <si>
+    <t>Backend-Server aufgesetzt, Datenbank aufgesetzt</t>
+  </si>
+  <si>
+    <t>#12, #11</t>
+  </si>
+  <si>
+    <t>Project Doc Überarbeitung</t>
+  </si>
+  <si>
+    <t>Aufsetzen Project Structure</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Issue erstellung, Kontrolle</t>
+  </si>
+  <si>
+    <t>Kontrolle, Project Doc Überarbeitung, Issue Erstellung</t>
   </si>
 </sst>
 </file>
@@ -198,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -212,6 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -227,6 +246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,20 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I15"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="42.77734375" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -572,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -624,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -650,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -676,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -699,34 +722,84 @@
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>45385</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5"/>
+      <c r="F14" s="4">
+        <v>45385</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>45392</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45392</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>45399</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45399</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
